--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2522946.623614272</v>
+        <v>2670997.876694761</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916858</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4767331.584601871</v>
+        <v>5019462.767819407</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>380.5877133914329</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7.377912357044183</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -817,16 +819,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>11.91929278475098</v>
+        <v>93.41827306551629</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>61.06041694983434</v>
       </c>
       <c r="E5" t="n">
-        <v>240.1485718096586</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1069,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>166.8316574011724</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>120.2642402774574</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>235.5098892894943</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>29.74512849779573</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>85.48535629365504</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>60.94899222869572</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1373,22 +1375,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>360.6006223621148</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1531,10 +1533,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>28.46824604904455</v>
+        <v>24.62703520777032</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>117.3077168854443</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2144,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.55329631630673</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2731,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>5.990622819018409</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>173.2212647391088</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3196,13 +3198,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>54.49360828358961</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>86.20228614855837</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>199.1362892344166</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3721,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>129.7139627068452</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800207</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>50.28454703777545</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225782</v>
+        <v>41.94061297377363</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3983,10 +3985,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>284.6368448271789</v>
+        <v>423.5887552948855</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791314231</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4141,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9742767430581</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>503.8064494671689</v>
+        <v>1647.308997322836</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1613.206928546663</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1581.337547761512</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>437.0247332457074</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>437.0247332457074</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0247332457074</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1689.73099335613</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>1689.73099335613</v>
       </c>
       <c r="V2" t="n">
-        <v>1354.309253581271</v>
+        <v>1689.73099335613</v>
       </c>
       <c r="W2" t="n">
-        <v>949.4537989923044</v>
+        <v>1688.915942807568</v>
       </c>
       <c r="X2" t="n">
-        <v>530.3113355716151</v>
+        <v>1673.813883427282</v>
       </c>
       <c r="Y2" t="n">
-        <v>526.0656159116726</v>
+        <v>1669.56816376734</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,34 +4397,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>593.9750599092082</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C4" t="n">
-        <v>593.9750599092082</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1258.605103980675</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="V4" t="n">
-        <v>1258.605103980675</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="W4" t="n">
-        <v>1258.605103980675</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="X4" t="n">
-        <v>1013.213349314087</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y4" t="n">
-        <v>785.7936786281953</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>763.0287521501519</v>
+        <v>603.8134145959592</v>
       </c>
       <c r="C5" t="n">
-        <v>728.9266833739794</v>
+        <v>165.6709417793825</v>
       </c>
       <c r="D5" t="n">
-        <v>300.3450091112477</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.25941213986526</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1733.888642131952</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2262.39702679087</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>2262.39702679087</v>
       </c>
       <c r="W5" t="n">
-        <v>1208.676101675288</v>
+        <v>1857.541572201903</v>
       </c>
       <c r="X5" t="n">
-        <v>1193.574042295002</v>
+        <v>1438.399108781214</v>
       </c>
       <c r="Y5" t="n">
-        <v>785.2879185946557</v>
+        <v>1030.112985080867</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4397056785397</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1425.157025666709</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1303.677995083419</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>1076.258324397527</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.069156190556</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>1132.967087414383</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D8" t="n">
-        <v>1101.097706629232</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>863.2089295691367</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1107.976466382457</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N8" t="n">
-        <v>1528.02936532736</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O8" t="n">
-        <v>1528.02936532736</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1528.02936532736</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1613.531556264254</v>
+        <v>2640.01524209022</v>
       </c>
       <c r="W8" t="n">
-        <v>1208.676101675288</v>
+        <v>2639.200191541658</v>
       </c>
       <c r="X8" t="n">
-        <v>1193.574042295002</v>
+        <v>2220.057728120968</v>
       </c>
       <c r="Y8" t="n">
-        <v>1189.32832263506</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="P9" t="n">
-        <v>1224.671464618085</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>632.348846104353</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>632.348846104353</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.750429333523</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1131.794921203953</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W10" t="n">
-        <v>859.7685167902448</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X10" t="n">
-        <v>859.7685167902448</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y10" t="n">
-        <v>632.348846104353</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1306.390568510015</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>868.2480956934382</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>868.2480956934382</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>868.2480956934382</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>440.380666102646</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2262.917935035995</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3586.813433454082</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3327.591130771099</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2964.974180704925</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2560.118726115958</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2140.976262695269</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1732.690138994923</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.6314506292333</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="C13" t="n">
-        <v>613.0697391124583</v>
+        <v>639.1929661716205</v>
       </c>
       <c r="D13" t="n">
-        <v>447.191746313981</v>
+        <v>639.1929661716205</v>
       </c>
       <c r="E13" t="n">
-        <v>447.191746313981</v>
+        <v>469.4349624223577</v>
       </c>
       <c r="F13" t="n">
-        <v>270.4846922757372</v>
+        <v>292.7279083841139</v>
       </c>
       <c r="G13" t="n">
-        <v>104.8934173015649</v>
+        <v>127.1366334099416</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745699</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.243407243978</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.287899114408</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.2614947007</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.869740034112</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y13" t="n">
-        <v>977.4500693482205</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1785.68009831996</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1347.537625503383</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>911.6278406778274</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>793.1351973591968</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2677677684046</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>511.3923006645387</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3444.26371051487</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3039.408255925903</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2620.265792505214</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2211.979668804867</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>76.13761321162086</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N15" t="n">
-        <v>797.1744111966217</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O15" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.6336502885522</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0719387717771</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>588.1939459732998</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>418.435942224037</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7288881857932</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2674.558054071736</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.678607650191</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2150.245606903296</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1863.290098773727</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1591.263694360019</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.871939693431</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1118.452269007539</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,10 +5521,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5555,10 +5557,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>426.819165236992</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L18" t="n">
-        <v>426.819165236992</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="M18" t="n">
-        <v>426.819165236992</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="N18" t="n">
-        <v>426.819165236992</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="O18" t="n">
-        <v>426.819165236992</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5698,7 +5700,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
         <v>2454.80183470935</v>
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,25 +5752,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>605.8694973157614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1680.929463568621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2837.977298779172</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3963.708282215619</v>
+        <v>3417.209496257024</v>
       </c>
       <c r="O20" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785925</v>
@@ -5777,16 +5779,16 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
@@ -5795,7 +5797,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6075,10 +6077,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
         <v>1765.500601749588</v>
@@ -6172,22 +6174,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
         <v>1144.575496066698</v>
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6549,19 +6551,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3435.538389938438</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3262.976678421663</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3097.098685623185</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>2927.340681873923</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2750.633627835679</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4867.162567117437</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4588.729566370543</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4301.774058240973</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>4029.747653827265</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3854.776679343317</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3627.357008657425</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M32" t="n">
-        <v>3603.973621145286</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N32" t="n">
-        <v>4729.704604581732</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O32" t="n">
-        <v>4729.704604581732</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P32" t="n">
-        <v>4729.704604581732</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>3762.041963884335</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>3762.041963884335</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>3762.041963884335</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>3762.041963884335</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>915.9519976190925</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>743.3902861023174</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>577.5122933038401</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2663.876401402276</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2417.996954980732</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2139.563954233837</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1852.608446104267</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1580.582041690559</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1335.190287023971</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1107.77061633808</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6935,52 +6937,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>388.1086717343214</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>388.1086717343214</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.168637987181</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L36" t="n">
-        <v>128.3245134312372</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>703.2638400820882</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>537.3858472836109</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>367.6278435343481</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>190.9207894961043</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>388.1086717343205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>388.1086717343205</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.16863798718</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7257,13 +7259,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1056.803889081883</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N39" t="n">
-        <v>1056.803889081883</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2517.772683270128</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1489.869036295243</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1489.869036295243</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N41" t="n">
-        <v>2432.071999789051</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="O41" t="n">
-        <v>2432.071999789051</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="P41" t="n">
-        <v>3260.381874622448</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q41" t="n">
-        <v>3806.880660581042</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581042</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581042</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3806.880660581042</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3806.880660581042</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3756.088188825714</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3336.945725405024</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2928.659601704678</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720784</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964014</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964014</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964014</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964014</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964014</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964014</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>944.8728193312368</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C43" t="n">
-        <v>772.3111078144617</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D43" t="n">
-        <v>606.4331150159844</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E43" t="n">
-        <v>436.6751112667217</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F43" t="n">
-        <v>259.9680572284778</v>
+        <v>398.8763199993409</v>
       </c>
       <c r="G43" t="n">
-        <v>94.37678225430551</v>
+        <v>233.2850450251686</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162085</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2692.797223114421</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.917776692876</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2168.484775945981</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1881.529267816412</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1609.502863402703</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X43" t="n">
-        <v>1364.111108736116</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y43" t="n">
-        <v>1136.691438050224</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1928.229821259171</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>1490.087348442594</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1054.177563617039</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1054.177563617039</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1345.742592622717</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N44" t="n">
-        <v>2287.945556116525</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="O44" t="n">
-        <v>2809.416720994589</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P44" t="n">
-        <v>3637.726595827985</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827985</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3806.880660581042</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3586.813433454081</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3586.813433454081</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3586.813433454081</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3181.957978865114</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2762.815515444425</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2354.529391744079</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720784</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.493131408668</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.493131408668</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.493131408668</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.493131408668</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.493131408668</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1066.535824598177</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>893.9741130814024</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>728.0961202829251</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E46" t="n">
-        <v>558.3381165336624</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>381.6310624954186</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>216.0397875212463</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2568.580781959817</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2568.580781959817</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2290.147781212922</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>2003.192273083352</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1731.165868669644</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1485.774114003056</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1258.354443317165</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8213,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>624.8248713018625</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8376,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8529,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,19 +8929,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N14" t="n">
-        <v>817.4976473511605</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9012,13 +9014,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N15" t="n">
-        <v>728.3199979646474</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="O15" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9240,13 +9242,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>28.2456490882098</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>980.0845558811002</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>169.6543172077065</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9650,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>655.9981329904112</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9884,19 +9886,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>257.1019996863001</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>387.2095039972201</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>289.0667057209134</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>1246.290173293239</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>288.7351832965068</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,19 +10664,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>288.735183296506</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10838,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,16 +10907,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11063,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>145.5822663358854</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452606</v>
+        <v>516.772174552771</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11078,10 +11080,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,19 +11138,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11300,25 +11302,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452606</v>
+        <v>135.6158905067728</v>
       </c>
       <c r="O44" t="n">
-        <v>526.7385503818837</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P45" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>36.78323070085389</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>110.0349065174847</v>
+        <v>113.8761173587589</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>312.1292805078435</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.782726914053</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>69.71657238081281</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>103.1553467313937</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>84.63380825304894</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>44.28436272291265</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5223530053016</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142714</v>
+        <v>96.5625395927556</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25871,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>138.9519104677054</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>34.67467827192522</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>427778.4661057689</v>
+        <v>432005.9069135273</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>427778.4661057689</v>
+        <v>432767.0669288359</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>351870.4657393654</v>
+        <v>435192.3740658681</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>351870.4657393655</v>
+        <v>435192.3740658681</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>435192.374065868</v>
+        <v>435192.3740658681</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>435192.3740658681</v>
+        <v>435192.374065868</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>351870.4657393654</v>
+        <v>435192.3740658681</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>351870.4657393654</v>
+        <v>435192.3740658681</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931484</v>
       </c>
       <c r="D2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931484</v>
       </c>
       <c r="E2" t="n">
-        <v>415335.8231724243</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="F2" t="n">
-        <v>415335.8231724243</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="G2" t="n">
         <v>513686.1445339185</v>
@@ -26341,19 +26343,19 @@
         <v>513686.1445339185</v>
       </c>
       <c r="L2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339186</v>
       </c>
       <c r="M2" t="n">
         <v>513686.1445339184</v>
       </c>
       <c r="N2" t="n">
+        <v>513686.1445339184</v>
+      </c>
+      <c r="O2" t="n">
+        <v>513686.1445339184</v>
+      </c>
+      <c r="P2" t="n">
         <v>513686.1445339185</v>
-      </c>
-      <c r="O2" t="n">
-        <v>415335.8231724242</v>
-      </c>
-      <c r="P2" t="n">
-        <v>415335.8231724242</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501605</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998293</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877242</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622443</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>138489.2977955548</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>22383.68653473858</v>
+        <v>27684.07875020269</v>
       </c>
       <c r="F4" t="n">
-        <v>22383.68653473859</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26451,13 +26453,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020264</v>
       </c>
       <c r="O4" t="n">
-        <v>22383.68653473858</v>
+        <v>27684.07875020269</v>
       </c>
       <c r="P4" t="n">
-        <v>22383.68653473858</v>
+        <v>27684.07875020264</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,19 +26524,19 @@
         <v>139695.1616357539</v>
       </c>
       <c r="C6" t="n">
-        <v>281886.4622954638</v>
+        <v>245710.357394575</v>
       </c>
       <c r="D6" t="n">
-        <v>281886.4622954637</v>
+        <v>306246.2165493879</v>
       </c>
       <c r="E6" t="n">
-        <v>177610.25567475</v>
+        <v>225928.7179568735</v>
       </c>
       <c r="F6" t="n">
-        <v>335087.5505968538</v>
+        <v>408283.8271779233</v>
       </c>
       <c r="G6" t="n">
-        <v>318784.0185715542</v>
+        <v>408283.8271779233</v>
       </c>
       <c r="H6" t="n">
         <v>408283.8271779233</v>
@@ -26546,22 +26548,22 @@
         <v>297269.3618329332</v>
       </c>
       <c r="K6" t="n">
-        <v>408283.8271779233</v>
+        <v>355237.9725391509</v>
       </c>
       <c r="L6" t="n">
-        <v>408283.8271779233</v>
+        <v>398891.525451301</v>
       </c>
       <c r="M6" t="n">
-        <v>276847.5800205037</v>
+        <v>256083.6562399355</v>
       </c>
       <c r="N6" t="n">
         <v>408283.8271779233</v>
       </c>
       <c r="O6" t="n">
-        <v>335087.5505968537</v>
+        <v>408283.8271779232</v>
       </c>
       <c r="P6" t="n">
-        <v>335087.5505968538</v>
+        <v>408283.8271779233</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768883</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768883</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768883</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>53.17333469697797</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>210.4886424986476</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7293779546748</v>
+        <v>182.2303976739094</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27600,7 +27602,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>370.4902700274656</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E5" t="n">
-        <v>189.2884255836292</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>108.8170133382533</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>122.6735968424643</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>193.9271081037935</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>329.245652067716</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>78.73385657683748</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>223.1369608195781</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34933,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>624.8248713018625</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34953,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080454</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35647,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N14" t="n">
-        <v>817.4976473511605</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N15" t="n">
-        <v>728.3199979646474</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="O15" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>28.2456490882098</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>980.0845558811002</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36139,7 +36141,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>169.6543172077065</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36370,16 +36372,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>655.9981329904112</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,19 +36606,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>257.1019996863001</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37081,16 +37083,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>387.2095039972201</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>289.0667057209134</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>1246.290173293239</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>288.7351832965068</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>288.735183296506</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37558,13 +37560,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>145.5822663358854</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452606</v>
+        <v>516.772174552771</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452606</v>
+        <v>135.6158905067728</v>
       </c>
       <c r="O44" t="n">
-        <v>526.7385503818837</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P45" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2670997.876694761</v>
+        <v>2670472.694325729</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916858</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>332.4291174559667</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
@@ -673,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>7.377912357044183</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>93.41827306551629</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>169.016847353155</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>61.06041694983434</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -910,13 +910,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>269.806958795717</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1065,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>66.12297015961195</v>
       </c>
       <c r="U7" t="n">
-        <v>166.8316574011724</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1144,7 +1144,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>29.74512849779573</v>
+        <v>272.8457603870801</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>60.94899222869572</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1375,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773002</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>24.62703520777032</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>220.655787876907</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1824,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>120.1838601509832</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2241,13 +2241,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>111.5309907175798</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>73.29899740799657</v>
       </c>
       <c r="I28" t="n">
-        <v>5.990622819018409</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2772,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>27.33721772847613</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>199.1362892344166</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800207</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>41.94061297377363</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948855</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791314231</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>28.46824604904392</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1647.308997322836</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>1613.206928546663</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D2" t="n">
-        <v>1581.337547761512</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.75587349878</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1689.73099335613</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1689.73099335613</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1689.73099335613</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1688.915942807568</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1673.813883427282</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.56816376734</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4415,16 +4415,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,19 +4491,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>728.7550221176472</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1443.580169393044</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1443.580169393044</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1443.580169393044</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1443.580169393044</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="Y4" t="n">
-        <v>1216.160498707152</v>
+        <v>262.5057921365585</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>603.8134145959592</v>
+        <v>571.7798232520863</v>
       </c>
       <c r="C5" t="n">
-        <v>165.6709417793825</v>
+        <v>537.6777544759137</v>
       </c>
       <c r="D5" t="n">
-        <v>103.993752941166</v>
+        <v>505.8083736907623</v>
       </c>
       <c r="E5" t="n">
-        <v>74.25941213986526</v>
+        <v>476.0740328894615</v>
       </c>
       <c r="F5" t="n">
-        <v>50.43238658947705</v>
+        <v>452.2470073390733</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>102.8181913809236</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087174</v>
+        <v>726.9189754257031</v>
       </c>
       <c r="L5" t="n">
-        <v>1733.888642131952</v>
+        <v>1351.019759470483</v>
       </c>
       <c r="M5" t="n">
-        <v>2352.465264720796</v>
+        <v>1351.019759470483</v>
       </c>
       <c r="N5" t="n">
-        <v>2352.465264720796</v>
+        <v>1351.019759470483</v>
       </c>
       <c r="O5" t="n">
-        <v>2352.465264720796</v>
+        <v>1975.120543515262</v>
       </c>
       <c r="P5" t="n">
-        <v>2352.465264720796</v>
+        <v>1975.120543515262</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720796</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473853</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="U5" t="n">
-        <v>2262.39702679087</v>
+        <v>2042.329799663912</v>
       </c>
       <c r="V5" t="n">
-        <v>2262.39702679087</v>
+        <v>1679.712849597739</v>
       </c>
       <c r="W5" t="n">
-        <v>1857.541572201903</v>
+        <v>1274.857395008772</v>
       </c>
       <c r="X5" t="n">
-        <v>1438.399108781214</v>
+        <v>1002.325113396937</v>
       </c>
       <c r="Y5" t="n">
-        <v>1030.112985080867</v>
+        <v>594.0389896965901</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326458</v>
+        <v>92.16803877326467</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993466</v>
+        <v>76.49605974993474</v>
       </c>
       <c r="J6" t="n">
-        <v>401.054384716147</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>1025.155168760926</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424322</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201358</v>
+        <v>952.7834931631147</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>780.2217816463397</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>614.3437888478624</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947705</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>325.1908411606126</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>743.4007229285737</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>1202.884590109487</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1645.143393267131</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2064.812642492913</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2412.319536463255</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S7" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="T7" t="n">
-        <v>2521.619329473853</v>
+        <v>2454.828450524754</v>
       </c>
       <c r="U7" t="n">
-        <v>2353.102503816103</v>
+        <v>2176.395449777859</v>
       </c>
       <c r="V7" t="n">
-        <v>2066.146995686534</v>
+        <v>1889.43994164829</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1617.413537234581</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606237</v>
+        <v>1372.021782567994</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>1144.602111882102</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1385.472033935714</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C8" t="n">
-        <v>947.3295611191371</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D8" t="n">
-        <v>511.4197762935816</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362199</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362199</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2640.01524209022</v>
+        <v>1831.517644636552</v>
       </c>
       <c r="W8" t="n">
-        <v>2639.200191541658</v>
+        <v>1830.70259408799</v>
       </c>
       <c r="X8" t="n">
-        <v>2220.057728120968</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.771604420622</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>966.8681021663376</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>794.3063906495626</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>628.4283978510853</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>458.6703941018225</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4959,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1903.524550651513</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1631.498146237804</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1386.106391571217</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1158.686720885325</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5047,46 +5047,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>811.7546776883955</v>
+        <v>875.8255515988632</v>
       </c>
       <c r="C13" t="n">
-        <v>639.1929661716205</v>
+        <v>703.2638400820881</v>
       </c>
       <c r="D13" t="n">
-        <v>639.1929661716205</v>
+        <v>537.3858472836108</v>
       </c>
       <c r="E13" t="n">
-        <v>469.4349624223577</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F13" t="n">
-        <v>292.7279083841139</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G13" t="n">
-        <v>127.1366334099416</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5205,46 +5205,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>881.8088617745699</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.67908147158</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.36663430314</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.41112617357</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.384721759862</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X13" t="n">
-        <v>1230.992967093275</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.573296407383</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5284,46 +5284,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5463,25 +5463,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2700.681281130895</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.80183470935</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,34 +5524,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
@@ -5560,7 +5560,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5764,34 +5764,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>699.0971113069977</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5998,16 +5998,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4729.704604581732</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4729.704604581732</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6229,22 +6229,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.710185817961</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C28" t="n">
-        <v>926.148474301186</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D28" t="n">
-        <v>760.2704815027087</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="E28" t="n">
-        <v>590.5124777534459</v>
+        <v>607.2585098297291</v>
       </c>
       <c r="F28" t="n">
-        <v>413.8054237152021</v>
+        <v>430.5514557914853</v>
       </c>
       <c r="G28" t="n">
-        <v>248.2141487410298</v>
+        <v>264.960180817313</v>
       </c>
       <c r="H28" t="n">
-        <v>108.3119744314043</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>2035.366634303136</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1763.340229889428</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1517.94847522284</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1290.528804536948</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,28 +6539,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>605.8694973157604</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1680.92946356862</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2837.977298779171</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3963.708282215618</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3762.041963884335</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>3762.041963884335</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>3762.041963884335</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>3762.041963884335</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4995.869235444641</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4995.869235444641</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4995.869235444641</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6919,46 +6919,46 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>700.7346440590309</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7140,7 +7140,7 @@
         <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7174,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1015.727725908489</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>843.1660143917137</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2517.772683270128</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2239.339682523233</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1952.384174393664</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1680.357769979955</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1434.966015313368</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1207.546344627476</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7420,16 +7420,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>4115.578073952529</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4115.578073952529</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
         <v>4943.887948785925</v>
@@ -7438,25 +7438,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1083.7810821021</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>911.2193705853248</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>745.3413777868475</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>575.5833740375847</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>398.8763199993409</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>233.2850450251686</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7581,40 +7581,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1748.411126173566</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1503.019371506979</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.599700821087</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
         <v>793.2056155771595</v>
@@ -7657,19 +7657,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>3738.23335274699</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
         <v>5113.042013538981</v>
@@ -7693,7 +7693,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
         <v>1765.500601749588</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
         <v>444.5591692831957</v>
@@ -7848,10 +7848,10 @@
         <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8139,22 +8139,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>203.2851159259061</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>52.91495433479443</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="M5" t="n">
-        <v>624.8248713018625</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741822</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.91440664741936</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>110.4038313238366</v>
+        <v>22.94960388476011</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8771,22 +8771,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.2456490882098</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,13 +9412,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>980.0845558811002</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>169.6543172077065</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,19 +9646,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>508.6956131767483</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>289.0667057209134</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,19 +11068,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>516.772174552771</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11138,19 +11138,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11305,13 +11305,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>135.6158905067728</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>113.8761173587589</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>63.43016517136687</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>81.78272691405301</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>59.30510368402751</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>65.20415515853266</v>
       </c>
       <c r="I28" t="n">
-        <v>81.782726914053</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>140.723205983294</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>44.28436272291265</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>96.5625395927556</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729420277</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>435192.374065868</v>
+        <v>435192.3740658681</v>
       </c>
     </row>
     <row r="15">
@@ -26316,16 +26316,16 @@
         <v>522743.6368931483</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931484</v>
+        <v>522743.6368931482</v>
       </c>
       <c r="D2" t="n">
-        <v>522743.6368931484</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="E2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="F2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="G2" t="n">
         <v>513686.1445339185</v>
@@ -26343,16 +26343,16 @@
         <v>513686.1445339185</v>
       </c>
       <c r="L2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="M2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="N2" t="n">
         <v>513686.1445339184</v>
       </c>
       <c r="O2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="P2" t="n">
         <v>513686.1445339185</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501605</v>
+        <v>66587.7678950164</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998293</v>
+        <v>11527.59554998255</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877242</v>
+        <v>53045.8546387727</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622443</v>
+        <v>9392.301726622134</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>138489.2977955548</v>
+        <v>138489.2977955545</v>
       </c>
       <c r="D4" t="n">
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>27684.07875020269</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020263</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020263</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26453,13 +26453,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020264</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="O4" t="n">
         <v>27684.07875020269</v>
       </c>
       <c r="P4" t="n">
-        <v>27684.07875020264</v>
+        <v>27684.07875020268</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800256</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26524,46 +26524,46 @@
         <v>139695.1616357539</v>
       </c>
       <c r="C6" t="n">
-        <v>245710.357394575</v>
+        <v>245710.3573945747</v>
       </c>
       <c r="D6" t="n">
-        <v>306246.2165493879</v>
+        <v>306246.2165493881</v>
       </c>
       <c r="E6" t="n">
-        <v>225928.7179568735</v>
+        <v>225905.4936174908</v>
       </c>
       <c r="F6" t="n">
-        <v>408283.8271779233</v>
+        <v>408260.6028385405</v>
       </c>
       <c r="G6" t="n">
-        <v>408283.8271779233</v>
+        <v>408260.6028385406</v>
       </c>
       <c r="H6" t="n">
-        <v>408283.8271779233</v>
+        <v>408260.6028385407</v>
       </c>
       <c r="I6" t="n">
-        <v>408283.8271779233</v>
+        <v>408260.6028385407</v>
       </c>
       <c r="J6" t="n">
-        <v>297269.3618329332</v>
+        <v>297246.1374935505</v>
       </c>
       <c r="K6" t="n">
-        <v>355237.9725391509</v>
+        <v>355214.748199768</v>
       </c>
       <c r="L6" t="n">
-        <v>398891.525451301</v>
+        <v>398868.3011119185</v>
       </c>
       <c r="M6" t="n">
-        <v>256083.6562399355</v>
+        <v>256060.4319005531</v>
       </c>
       <c r="N6" t="n">
-        <v>408283.8271779233</v>
+        <v>408260.6028385406</v>
       </c>
       <c r="O6" t="n">
-        <v>408283.8271779232</v>
+        <v>408260.6028385406</v>
       </c>
       <c r="P6" t="n">
-        <v>408283.8271779233</v>
+        <v>408260.6028385407</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684632</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1278.260503384745</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483589</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939391</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768883</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483589</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939391</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768883</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483589</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939391</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768883</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>101.3319306324442</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>210.4886424986476</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>182.2303976739094</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>73.92098976676664</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>370.4902700274656</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>145.1440799907654</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>177.2976817977173</v>
       </c>
       <c r="U7" t="n">
-        <v>108.8170133382533</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>329.245652067716</v>
+        <v>86.14502017843159</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>223.1369608195781</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30653,7 +30653,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>203.2851159259061</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>52.91495433479443</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="M5" t="n">
-        <v>624.8248713018625</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741822</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.91440664741936</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35108,13 +35108,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>110.4038313238366</v>
+        <v>22.94960388476011</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080454</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35582,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35652,13 +35652,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.2456490882098</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36132,13 +36132,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>980.0845558811002</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>169.6543172077065</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36366,19 +36366,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>508.6956131767483</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37092,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>289.0667057209134</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>516.772174552771</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37858,19 +37858,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37949,10 +37949,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956044</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38025,13 +38025,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>135.6158905067728</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
